--- a/Customer_Invoice_Analysis.xlsx
+++ b/Customer_Invoice_Analysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\invoice-analysis-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\invoice-analysis-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0B72B2-36E7-4AE8-A0C3-94A136DC3DA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029A379-8955-4EEA-AB3D-5E114804B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{56643878-06B9-462D-81B7-435828026F01}"/>
   </bookViews>
@@ -4018,7 +4018,7 @@
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Customer_Invoice_Analysis.xlsx
+++ b/Customer_Invoice_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\invoice-analysis-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C029A379-8955-4EEA-AB3D-5E114804B3C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4228CA38-C309-4A5F-909C-242A19890861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{56643878-06B9-462D-81B7-435828026F01}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="26">
   <si>
     <t>Sereni</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Reference Date</t>
+  </si>
+  <si>
+    <t>Payment Date</t>
   </si>
 </sst>
 </file>
@@ -576,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE09EC4-53E9-4C94-BBDB-1B93061353BD}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,9 +592,10 @@
     <col min="3" max="3" width="15.08984375" style="9" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -607,8 +611,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -624,8 +631,11 @@
       <c r="E2" s="5">
         <v>45894</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="5">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -641,8 +651,9 @@
       <c r="E3" s="5">
         <v>46091</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -658,8 +669,11 @@
       <c r="E4" s="5">
         <v>45778</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F4" s="5">
+        <v>45792</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -675,8 +689,11 @@
       <c r="E5" s="5">
         <v>45915</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F5" s="5">
+        <v>45935</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -692,8 +709,9 @@
       <c r="E6" s="5">
         <v>45966</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -709,8 +727,9 @@
       <c r="E7" s="5">
         <v>46223</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -726,8 +745,11 @@
       <c r="E8" s="5">
         <v>45758</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F8" s="5">
+        <v>45788</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -743,8 +765,9 @@
       <c r="E9" s="5">
         <v>46025</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -760,8 +783,11 @@
       <c r="E10" s="5">
         <v>45734</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F10" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -777,8 +803,9 @@
       <c r="E11" s="5">
         <v>46055</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -794,8 +821,11 @@
       <c r="E12" s="5">
         <v>45776</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F12" s="5">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -811,8 +841,9 @@
       <c r="E13" s="5">
         <v>46005</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -828,8 +859,11 @@
       <c r="E14" s="5">
         <v>45846</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F14" s="5">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -845,8 +879,9 @@
       <c r="E15" s="5">
         <v>46044</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -862,8 +897,9 @@
       <c r="E16" s="5">
         <v>46129</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -879,8 +915,11 @@
       <c r="E17" s="5">
         <v>45814</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F17" s="5">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -896,8 +935,9 @@
       <c r="E18" s="5">
         <v>46090</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -913,8 +953,9 @@
       <c r="E19" s="5">
         <v>46072</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -930,8 +971,11 @@
       <c r="E20" s="5">
         <v>45768</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F20" s="5">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -947,8 +991,11 @@
       <c r="E21" s="5">
         <v>45934</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F21" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -964,8 +1011,9 @@
       <c r="E22" s="5">
         <v>46088</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -981,8 +1029,11 @@
       <c r="E23" s="5">
         <v>46014</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F23" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -998,8 +1049,9 @@
       <c r="E24" s="5">
         <v>46155</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -1015,8 +1067,11 @@
       <c r="E25" s="5">
         <v>45839</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F25" s="5">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -1032,8 +1087,9 @@
       <c r="E26" s="5">
         <v>46098</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -1049,8 +1105,11 @@
       <c r="E27" s="5">
         <v>45805</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F27" s="5">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -1066,8 +1125,11 @@
       <c r="E28" s="5">
         <v>45963</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F28" s="5">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -1083,8 +1145,9 @@
       <c r="E29" s="5">
         <v>46033</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -1100,8 +1163,11 @@
       <c r="E30" s="5">
         <v>45751</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F30" s="5">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -1117,8 +1183,11 @@
       <c r="E31" s="5">
         <v>45824</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F31" s="5">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -1134,8 +1203,9 @@
       <c r="E32" s="5">
         <v>46080</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -1151,8 +1221,9 @@
       <c r="E33" s="5">
         <v>46124</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -1168,8 +1239,11 @@
       <c r="E34" s="5">
         <v>45905</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F34" s="5">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -1185,8 +1259,11 @@
       <c r="E35" s="5">
         <v>45736</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F35" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -1202,8 +1279,11 @@
       <c r="E36" s="5">
         <v>45974</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F36" s="5">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -1219,8 +1299,11 @@
       <c r="E37" s="5">
         <v>45878</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F37" s="5">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -1236,8 +1319,11 @@
       <c r="E38" s="5">
         <v>45954</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F38" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -1253,8 +1339,9 @@
       <c r="E39" s="5">
         <v>46145</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -1270,8 +1357,11 @@
       <c r="E40" s="5">
         <v>45731</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F40" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -1287,8 +1377,9 @@
       <c r="E41" s="5">
         <v>46043</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -1304,8 +1395,11 @@
       <c r="E42" s="5">
         <v>46001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F42" s="5">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -1321,8 +1415,11 @@
       <c r="E43" s="5">
         <v>45897</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F43" s="5">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -1338,8 +1435,11 @@
       <c r="E44" s="5">
         <v>45809</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F44" s="5">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -1355,8 +1455,9 @@
       <c r="E45" s="5">
         <v>46119</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -1372,8 +1473,9 @@
       <c r="E46" s="5">
         <v>46168</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -1389,8 +1491,9 @@
       <c r="E47" s="5">
         <v>45980</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -1406,8 +1509,9 @@
       <c r="E48" s="5">
         <v>46095</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -1423,8 +1527,11 @@
       <c r="E49" s="5">
         <v>45950</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F49" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -1440,8 +1547,9 @@
       <c r="E50" s="5">
         <v>46152</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -1457,8 +1565,11 @@
       <c r="E51" s="5">
         <v>45916</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F51" s="5">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -1474,8 +1585,11 @@
       <c r="E52" s="5">
         <v>45866</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F52" s="5">
+        <v>46129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -1491,8 +1605,11 @@
       <c r="E53" s="5">
         <v>46152</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F53" s="5">
+        <v>46048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -1508,8 +1625,11 @@
       <c r="E54" s="5">
         <v>45728</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F54" s="5">
+        <v>46106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -1525,8 +1645,11 @@
       <c r="E55" s="5">
         <v>45904</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F55" s="5">
+        <v>45966</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -1542,8 +1665,11 @@
       <c r="E56" s="5">
         <v>46008</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F56" s="5">
+        <v>46144</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -1559,8 +1685,11 @@
       <c r="E57" s="5">
         <v>46225</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F57" s="5">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -1576,8 +1705,11 @@
       <c r="E58" s="5">
         <v>46117</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F58" s="5">
+        <v>45897</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -1593,8 +1725,11 @@
       <c r="E59" s="5">
         <v>46035</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F59" s="5">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -1610,8 +1745,11 @@
       <c r="E60" s="5">
         <v>45806</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F60" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -1627,8 +1765,9 @@
       <c r="E61" s="5">
         <v>45969</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -1644,8 +1783,11 @@
       <c r="E62" s="5">
         <v>46123</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F62" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -1661,8 +1803,11 @@
       <c r="E63" s="5">
         <v>46101</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F63" s="5">
+        <v>46223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -1678,8 +1823,11 @@
       <c r="E64" s="5">
         <v>46060</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F64" s="5">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -1695,8 +1843,11 @@
       <c r="E65" s="5">
         <v>45946</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F65" s="5">
+        <v>46082</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -1712,8 +1863,11 @@
       <c r="E66" s="5">
         <v>46144</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F66" s="5">
+        <v>45910</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -1729,8 +1883,11 @@
       <c r="E67" s="5">
         <v>45822</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F67" s="5">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -1746,8 +1903,11 @@
       <c r="E68" s="5">
         <v>45890</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F68" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -1763,8 +1923,11 @@
       <c r="E69" s="5">
         <v>46001</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F69" s="5">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -1780,8 +1943,11 @@
       <c r="E70" s="5">
         <v>46048</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F70" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -1797,8 +1963,11 @@
       <c r="E71" s="5">
         <v>46084</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F71" s="5">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -1814,8 +1983,11 @@
       <c r="E72" s="5">
         <v>45907</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F72" s="5">
+        <v>46040</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -1831,8 +2003,11 @@
       <c r="E73" s="5">
         <v>46222</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F73" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -1848,8 +2023,11 @@
       <c r="E74" s="5">
         <v>45748</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F74" s="5">
+        <v>46063</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -1865,8 +2043,11 @@
       <c r="E75" s="5">
         <v>46064</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F75" s="5">
+        <v>45717</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -1882,8 +2063,11 @@
       <c r="E76" s="5">
         <v>45928</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F76" s="5">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -1899,8 +2083,11 @@
       <c r="E77" s="5">
         <v>45970</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F77" s="5">
+        <v>45894</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -1916,8 +2103,11 @@
       <c r="E78" s="5">
         <v>46146</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F78" s="5">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -1933,8 +2123,9 @@
       <c r="E79" s="5">
         <v>46040</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -1950,8 +2141,11 @@
       <c r="E80" s="5">
         <v>45717</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F80" s="5">
+        <v>46167</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -1967,8 +2161,11 @@
       <c r="E81" s="5">
         <v>45953</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F81" s="5">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -1984,8 +2181,11 @@
       <c r="E82" s="5">
         <v>46218</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F82" s="5">
+        <v>45950</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -2001,8 +2201,11 @@
       <c r="E83" s="5">
         <v>46087</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F83" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -2018,8 +2221,11 @@
       <c r="E84" s="5">
         <v>45920</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F84" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -2035,8 +2241,11 @@
       <c r="E85" s="5">
         <v>46129</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F85" s="5">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -2052,8 +2261,11 @@
       <c r="E86" s="5">
         <v>45990</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F86" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -2069,8 +2281,11 @@
       <c r="E87" s="5">
         <v>46005</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F87" s="5">
+        <v>46122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -2086,8 +2301,11 @@
       <c r="E88" s="5">
         <v>45846</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F88" s="5">
+        <v>46078</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -2103,8 +2321,11 @@
       <c r="E89" s="5">
         <v>46056</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F89" s="5">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -2120,8 +2341,11 @@
       <c r="E90" s="5">
         <v>45985</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F90" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -2137,8 +2361,11 @@
       <c r="E91" s="5">
         <v>45787</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F91" s="5">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -2154,8 +2381,11 @@
       <c r="E92" s="5">
         <v>46118</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F92" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -2171,8 +2401,11 @@
       <c r="E93" s="5">
         <v>46041</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F93" s="5">
+        <v>46054</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -2188,8 +2421,11 @@
       <c r="E94" s="5">
         <v>45931</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F94" s="5">
+        <v>46113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -2205,8 +2441,11 @@
       <c r="E95" s="5">
         <v>46096</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F95" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -2222,8 +2461,11 @@
       <c r="E96" s="5">
         <v>45878</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F96" s="5">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -2239,8 +2481,11 @@
       <c r="E97" s="5">
         <v>45995</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F97" s="5">
+        <v>46042</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -2256,8 +2501,11 @@
       <c r="E98" s="5">
         <v>46221</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F98" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -2273,8 +2521,11 @@
       <c r="E99" s="5">
         <v>45770</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F99" s="5">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -2290,8 +2541,11 @@
       <c r="E100" s="5">
         <v>46088</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F100" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -2307,8 +2561,11 @@
       <c r="E101" s="5">
         <v>46163</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F101" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -2324,8 +2581,11 @@
       <c r="E102" s="5">
         <v>45935</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F102" s="5">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -2341,8 +2601,11 @@
       <c r="E103" s="5">
         <v>45990</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F103" s="5">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -2358,8 +2621,9 @@
       <c r="E104" s="5">
         <v>46123</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -2375,8 +2639,11 @@
       <c r="E105" s="5">
         <v>46095</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F105" s="5">
+        <v>45924</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -2392,8 +2659,9 @@
       <c r="E106" s="5">
         <v>46145</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -2409,8 +2677,11 @@
       <c r="E107" s="5">
         <v>45916</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F107" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -2426,8 +2697,9 @@
       <c r="E108" s="5">
         <v>46023</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -2443,8 +2715,11 @@
       <c r="E109" s="5">
         <v>45804</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F109" s="5">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -2460,8 +2735,11 @@
       <c r="E110" s="5">
         <v>46072</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F110" s="5">
+        <v>45901</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -2477,8 +2755,11 @@
       <c r="E111" s="5">
         <v>46003</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F111" s="5">
+        <v>45889</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -2494,8 +2775,11 @@
       <c r="E112" s="5">
         <v>45755</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F112" s="5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -2511,8 +2795,9 @@
       <c r="E113" s="5">
         <v>45904</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -2528,8 +2813,9 @@
       <c r="E114" s="5">
         <v>46224</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -2545,8 +2831,11 @@
       <c r="E115" s="5">
         <v>46188</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F115" s="5">
+        <v>46011</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -2562,8 +2851,11 @@
       <c r="E116" s="5">
         <v>45964</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F116" s="5">
+        <v>46127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -2579,8 +2871,11 @@
       <c r="E117" s="5">
         <v>46109</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F117" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -2596,8 +2891,9 @@
       <c r="E118" s="5">
         <v>46031</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -2613,8 +2909,11 @@
       <c r="E119" s="5">
         <v>46162</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F119" s="5">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -2630,8 +2929,11 @@
       <c r="E120" s="5">
         <v>45839</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F120" s="5">
+        <v>46101</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -2647,8 +2949,11 @@
       <c r="E121" s="5">
         <v>46126</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F121" s="5">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -2664,8 +2969,11 @@
       <c r="E122" s="5">
         <v>46079</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F122" s="5">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -2681,8 +2989,9 @@
       <c r="E123" s="5">
         <v>46001</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -2698,8 +3007,11 @@
       <c r="E124" s="5">
         <v>46117</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F124" s="5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -2715,8 +3027,11 @@
       <c r="E125" s="5">
         <v>45984</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F125" s="5">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -2732,8 +3047,9 @@
       <c r="E126" s="5">
         <v>46098</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -2749,8 +3065,11 @@
       <c r="E127" s="5">
         <v>45919</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F127" s="5">
+        <v>46001</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -2766,8 +3085,11 @@
       <c r="E128" s="5">
         <v>45724</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F128" s="5">
+        <v>46068</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -2783,8 +3105,11 @@
       <c r="E129" s="5">
         <v>46055</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F129" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -2800,8 +3125,11 @@
       <c r="E130" s="5">
         <v>46132</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F130" s="5">
+        <v>46223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -2817,8 +3145,11 @@
       <c r="E131" s="5">
         <v>45844</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F131" s="5">
+        <v>46132</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -2834,8 +3165,11 @@
       <c r="E132" s="5">
         <v>46155</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F132" s="5">
+        <v>46157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -2851,8 +3185,11 @@
       <c r="E133" s="5">
         <v>46040</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F133" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -2868,8 +3205,11 @@
       <c r="E134" s="5">
         <v>45954</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F134" s="5">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -2885,8 +3225,11 @@
       <c r="E135" s="5">
         <v>46119</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F135" s="5">
+        <v>46037</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -2902,8 +3245,11 @@
       <c r="E136" s="5">
         <v>46110</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F136" s="5">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -2919,8 +3265,11 @@
       <c r="E137" s="5">
         <v>45971</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F137" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -2936,8 +3285,11 @@
       <c r="E138" s="5">
         <v>46146</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F138" s="5">
+        <v>46152</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -2953,8 +3305,11 @@
       <c r="E139" s="5">
         <v>46093</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F139" s="5">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -2970,8 +3325,11 @@
       <c r="E140" s="5">
         <v>45809</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F140" s="5">
+        <v>46032</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -2987,8 +3345,11 @@
       <c r="E141" s="5">
         <v>45978</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F141" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -3004,8 +3365,11 @@
       <c r="E142" s="5">
         <v>45890</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F142" s="5">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -3021,8 +3385,11 @@
       <c r="E143" s="5">
         <v>46037</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F143" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -3038,8 +3405,9 @@
       <c r="E144" s="5">
         <v>46231</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -3055,8 +3423,11 @@
       <c r="E145" s="5">
         <v>45780</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F145" s="5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -3072,8 +3443,11 @@
       <c r="E146" s="5">
         <v>45946</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F146" s="5">
+        <v>46162</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -3089,8 +3463,11 @@
       <c r="E147" s="5">
         <v>46061</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F147" s="5">
+        <v>46143</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -3106,8 +3483,11 @@
       <c r="E148" s="5">
         <v>46014</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F148" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -3123,8 +3503,11 @@
       <c r="E149" s="5">
         <v>46092</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F149" s="5">
+        <v>45981</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -3140,8 +3523,11 @@
       <c r="E150" s="5">
         <v>46223</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F150" s="5">
+        <v>46096</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -3157,8 +3543,11 @@
       <c r="E151" s="5">
         <v>45905</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F151" s="5">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -3174,8 +3563,11 @@
       <c r="E152" s="5">
         <v>46129</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F152" s="5">
+        <v>45778</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -3191,8 +3583,11 @@
       <c r="E153" s="5">
         <v>46154</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F153" s="5">
+        <v>46091</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -3208,8 +3603,11 @@
       <c r="E154" s="5">
         <v>45894</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F154" s="5">
+        <v>45797</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -3225,8 +3623,11 @@
       <c r="E155" s="5">
         <v>46091</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F155" s="5">
+        <v>45920</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -3242,8 +3643,9 @@
       <c r="E156" s="5">
         <v>45778</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -3259,8 +3661,9 @@
       <c r="E157" s="5">
         <v>45915</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -3276,8 +3679,11 @@
       <c r="E158" s="5">
         <v>45966</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F158" s="5">
+        <v>45772</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -3293,8 +3699,11 @@
       <c r="E159" s="5">
         <v>46223</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F159" s="5">
+        <v>46047</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -3310,8 +3719,11 @@
       <c r="E160" s="5">
         <v>45758</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F160" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -3327,8 +3739,9 @@
       <c r="E161" s="5">
         <v>46025</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -3344,8 +3757,11 @@
       <c r="E162" s="5">
         <v>45734</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F162" s="5">
+        <v>45782</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -3361,8 +3777,9 @@
       <c r="E163" s="5">
         <v>46055</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -3378,8 +3795,11 @@
       <c r="E164" s="5">
         <v>45776</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F164" s="5">
+        <v>45870</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -3395,8 +3815,9 @@
       <c r="E165" s="5">
         <v>46005</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -3412,8 +3833,9 @@
       <c r="E166" s="5">
         <v>45846</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -3429,8 +3851,11 @@
       <c r="E167" s="5">
         <v>46044</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F167" s="5">
+        <v>45823</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -3446,8 +3871,9 @@
       <c r="E168" s="5">
         <v>46129</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -3463,8 +3889,9 @@
       <c r="E169" s="5">
         <v>45814</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -3480,8 +3907,11 @@
       <c r="E170" s="5">
         <v>46090</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F170" s="5">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -3497,8 +3927,11 @@
       <c r="E171" s="5">
         <v>46072</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F171" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -3514,8 +3947,9 @@
       <c r="E172" s="5">
         <v>45768</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -3531,8 +3965,11 @@
       <c r="E173" s="5">
         <v>45934</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F173" s="5">
+        <v>46023</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -3548,8 +3985,9 @@
       <c r="E174" s="5">
         <v>46088</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -3565,8 +4003,11 @@
       <c r="E175" s="5">
         <v>46014</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F175" s="5">
+        <v>45853</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -3582,8 +4023,9 @@
       <c r="E176" s="5">
         <v>46155</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -3599,8 +4041,11 @@
       <c r="E177" s="5">
         <v>45839</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F177" s="5">
+        <v>45813</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -3616,8 +4061,11 @@
       <c r="E178" s="5">
         <v>46098</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F178" s="5">
+        <v>45971</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -3633,8 +4081,9 @@
       <c r="E179" s="5">
         <v>45805</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -3650,8 +4099,11 @@
       <c r="E180" s="5">
         <v>45963</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F180" s="5">
+        <v>45767</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -3667,8 +4119,11 @@
       <c r="E181" s="5">
         <v>46033</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F181" s="5">
+        <v>45818</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -3684,8 +4139,9 @@
       <c r="E182" s="5">
         <v>45751</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -3701,8 +4157,9 @@
       <c r="E183" s="5">
         <v>45824</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -3718,8 +4175,11 @@
       <c r="E184" s="5">
         <v>46080</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F184" s="5">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -3735,8 +4195,11 @@
       <c r="E185" s="5">
         <v>46124</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F185" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -3752,8 +4215,11 @@
       <c r="E186" s="5">
         <v>45905</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F186" s="5">
+        <v>45976</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -3769,8 +4235,11 @@
       <c r="E187" s="5">
         <v>45736</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F187" s="5">
+        <v>45915</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -3786,8 +4255,11 @@
       <c r="E188" s="5">
         <v>45974</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F188" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -3803,8 +4275,9 @@
       <c r="E189" s="5">
         <v>45878</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -3820,8 +4293,11 @@
       <c r="E190" s="5">
         <v>45954</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F190" s="5">
+        <v>45736</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -3837,8 +4313,9 @@
       <c r="E191" s="5">
         <v>46145</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -3854,8 +4331,11 @@
       <c r="E192" s="5">
         <v>45731</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F192" s="5">
+        <v>46006</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -3871,8 +4351,11 @@
       <c r="E193" s="5">
         <v>46043</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F193" s="5">
+        <v>45905</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -3888,8 +4371,11 @@
       <c r="E194" s="5">
         <v>46001</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F194" s="5">
+        <v>45828</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -3905,8 +4391,9 @@
       <c r="E195" s="5">
         <v>45897</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -3922,8 +4409,9 @@
       <c r="E196" s="5">
         <v>45809</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -3939,8 +4427,9 @@
       <c r="E197" s="5">
         <v>46119</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -3956,8 +4445,9 @@
       <c r="E198" s="5">
         <v>46168</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -3973,8 +4463,11 @@
       <c r="E199" s="5">
         <v>46072</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F199" s="5">
+        <v>45962</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -3990,8 +4483,9 @@
       <c r="E200" s="5">
         <v>46095</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -4006,6 +4500,9 @@
       </c>
       <c r="E201" s="5">
         <v>45950</v>
+      </c>
+      <c r="F201" s="5">
+        <v>45920</v>
       </c>
     </row>
   </sheetData>
@@ -4015,10 +4512,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD82BC1-84A4-4280-BEAB-AE99592285DD}">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4028,12 +4525,13 @@
     <col min="3" max="3" width="15.08984375" style="9" customWidth="1"/>
     <col min="4" max="4" width="18.54296875" style="12" customWidth="1"/>
     <col min="5" max="5" width="13.90625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.54296875" style="12" customWidth="1"/>
-    <col min="7" max="7" width="21.54296875" customWidth="1"/>
-    <col min="8" max="8" width="19.54296875" customWidth="1"/>
+    <col min="6" max="6" width="16.90625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.54296875" style="12" customWidth="1"/>
+    <col min="8" max="8" width="21.54296875" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4049,17 +4547,20 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -4076,12 +4577,15 @@
         <v>45894</v>
       </c>
       <c r="F2" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>45889</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45981</v>
+      </c>
       <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4097,13 +4601,14 @@
       <c r="E3" s="5">
         <v>46091</v>
       </c>
-      <c r="F3" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G3" s="2"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
+        <v>45981</v>
+      </c>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -4120,12 +4625,15 @@
         <v>45778</v>
       </c>
       <c r="F4" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G4" s="2"/>
+        <v>45792</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45981</v>
+      </c>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -4142,12 +4650,15 @@
         <v>45915</v>
       </c>
       <c r="F5" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>45935</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45981</v>
+      </c>
       <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -4163,13 +4674,14 @@
       <c r="E6" s="5">
         <v>45966</v>
       </c>
-      <c r="F6" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G6" s="2"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>45981</v>
+      </c>
       <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -4185,13 +4697,14 @@
       <c r="E7" s="5">
         <v>46223</v>
       </c>
-      <c r="F7" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G7" s="2"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
+        <v>45981</v>
+      </c>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -4208,12 +4721,15 @@
         <v>45758</v>
       </c>
       <c r="F8" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G8" s="2"/>
+        <v>45788</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45981</v>
+      </c>
       <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -4229,13 +4745,14 @@
       <c r="E9" s="5">
         <v>46025</v>
       </c>
-      <c r="F9" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
+        <v>45981</v>
+      </c>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -4252,12 +4769,15 @@
         <v>45734</v>
       </c>
       <c r="F10" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G10" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G10" s="5">
+        <v>45981</v>
+      </c>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -4273,13 +4793,14 @@
       <c r="E11" s="5">
         <v>46055</v>
       </c>
-      <c r="F11" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5">
+        <v>45981</v>
+      </c>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -4296,12 +4817,15 @@
         <v>45776</v>
       </c>
       <c r="F12" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G12" s="2"/>
+        <v>45782</v>
+      </c>
+      <c r="G12" s="5">
+        <v>45981</v>
+      </c>
       <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -4317,13 +4841,14 @@
       <c r="E13" s="5">
         <v>46005</v>
       </c>
-      <c r="F13" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G13" s="2"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
+        <v>45981</v>
+      </c>
       <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -4340,12 +4865,15 @@
         <v>45846</v>
       </c>
       <c r="F14" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G14" s="2"/>
+        <v>45870</v>
+      </c>
+      <c r="G14" s="5">
+        <v>45981</v>
+      </c>
       <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -4361,13 +4889,14 @@
       <c r="E15" s="5">
         <v>46044</v>
       </c>
-      <c r="F15" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5">
+        <v>45981</v>
+      </c>
       <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -4383,13 +4912,14 @@
       <c r="E16" s="5">
         <v>46129</v>
       </c>
-      <c r="F16" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
+        <v>45981</v>
+      </c>
       <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -4406,12 +4936,15 @@
         <v>45814</v>
       </c>
       <c r="F17" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G17" s="2"/>
+        <v>45818</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45981</v>
+      </c>
       <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -4427,13 +4960,14 @@
       <c r="E18" s="5">
         <v>46090</v>
       </c>
-      <c r="F18" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5">
+        <v>45981</v>
+      </c>
       <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -4449,13 +4983,14 @@
       <c r="E19" s="5">
         <v>46072</v>
       </c>
-      <c r="F19" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G19" s="2"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5">
+        <v>45981</v>
+      </c>
       <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -4472,12 +5007,15 @@
         <v>45768</v>
       </c>
       <c r="F20" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G20" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="G20" s="5">
+        <v>45981</v>
+      </c>
       <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -4494,12 +5032,15 @@
         <v>45934</v>
       </c>
       <c r="F21" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G21" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G21" s="5">
+        <v>45981</v>
+      </c>
       <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -4515,13 +5056,14 @@
       <c r="E22" s="5">
         <v>46088</v>
       </c>
-      <c r="F22" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5">
+        <v>45981</v>
+      </c>
       <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -4538,12 +5080,15 @@
         <v>46014</v>
       </c>
       <c r="F23" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>46023</v>
+      </c>
+      <c r="G23" s="5">
+        <v>45981</v>
+      </c>
       <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -4559,13 +5104,14 @@
       <c r="E24" s="5">
         <v>46155</v>
       </c>
-      <c r="F24" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>45981</v>
+      </c>
       <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -4582,12 +5128,15 @@
         <v>45839</v>
       </c>
       <c r="F25" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>45853</v>
+      </c>
+      <c r="G25" s="5">
+        <v>45981</v>
+      </c>
       <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -4603,13 +5152,14 @@
       <c r="E26" s="5">
         <v>46098</v>
       </c>
-      <c r="F26" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
+        <v>45981</v>
+      </c>
       <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -4626,12 +5176,15 @@
         <v>45805</v>
       </c>
       <c r="F27" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G27" s="2"/>
+        <v>45813</v>
+      </c>
+      <c r="G27" s="5">
+        <v>45981</v>
+      </c>
       <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -4648,12 +5201,15 @@
         <v>45963</v>
       </c>
       <c r="F28" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>45971</v>
+      </c>
+      <c r="G28" s="5">
+        <v>45981</v>
+      </c>
       <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -4669,13 +5225,14 @@
       <c r="E29" s="5">
         <v>46033</v>
       </c>
-      <c r="F29" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5">
+        <v>45981</v>
+      </c>
       <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -4692,12 +5249,15 @@
         <v>45751</v>
       </c>
       <c r="F30" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G30" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="G30" s="5">
+        <v>45981</v>
+      </c>
       <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -4714,12 +5274,15 @@
         <v>45824</v>
       </c>
       <c r="F31" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G31" s="2"/>
+        <v>45818</v>
+      </c>
+      <c r="G31" s="5">
+        <v>45981</v>
+      </c>
       <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -4735,13 +5298,14 @@
       <c r="E32" s="5">
         <v>46080</v>
       </c>
-      <c r="F32" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G32" s="2"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
+        <v>45981</v>
+      </c>
       <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -4757,13 +5321,14 @@
       <c r="E33" s="5">
         <v>46124</v>
       </c>
-      <c r="F33" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G33" s="2"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>45981</v>
+      </c>
       <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -4780,12 +5345,15 @@
         <v>45905</v>
       </c>
       <c r="F34" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G34" s="2"/>
+        <v>45931</v>
+      </c>
+      <c r="G34" s="5">
+        <v>45981</v>
+      </c>
       <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -4802,12 +5370,15 @@
         <v>45736</v>
       </c>
       <c r="F35" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G35" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G35" s="5">
+        <v>45981</v>
+      </c>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -4824,12 +5395,15 @@
         <v>45974</v>
       </c>
       <c r="F36" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G36" s="2"/>
+        <v>45976</v>
+      </c>
+      <c r="G36" s="5">
+        <v>45981</v>
+      </c>
       <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -4846,12 +5420,15 @@
         <v>45878</v>
       </c>
       <c r="F37" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G37" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="G37" s="5">
+        <v>45981</v>
+      </c>
       <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -4868,12 +5445,15 @@
         <v>45954</v>
       </c>
       <c r="F38" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G38" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G38" s="5">
+        <v>45981</v>
+      </c>
       <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -4889,13 +5469,14 @@
       <c r="E39" s="5">
         <v>46145</v>
       </c>
-      <c r="F39" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G39" s="2"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
+        <v>45981</v>
+      </c>
       <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -4912,12 +5493,15 @@
         <v>45731</v>
       </c>
       <c r="F40" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G40" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G40" s="5">
+        <v>45981</v>
+      </c>
       <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -4933,13 +5517,14 @@
       <c r="E41" s="5">
         <v>46043</v>
       </c>
-      <c r="F41" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G41" s="2"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <v>45981</v>
+      </c>
       <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -4956,12 +5541,15 @@
         <v>46001</v>
       </c>
       <c r="F42" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G42" s="2"/>
+        <v>46006</v>
+      </c>
+      <c r="G42" s="5">
+        <v>45981</v>
+      </c>
       <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -4978,12 +5566,15 @@
         <v>45897</v>
       </c>
       <c r="F43" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G43" s="2"/>
+        <v>45905</v>
+      </c>
+      <c r="G43" s="5">
+        <v>45981</v>
+      </c>
       <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -5000,12 +5591,15 @@
         <v>45809</v>
       </c>
       <c r="F44" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G44" s="2"/>
+        <v>45828</v>
+      </c>
+      <c r="G44" s="5">
+        <v>45981</v>
+      </c>
       <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -5021,13 +5615,14 @@
       <c r="E45" s="5">
         <v>46119</v>
       </c>
-      <c r="F45" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G45" s="2"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>45981</v>
+      </c>
       <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -5043,13 +5638,14 @@
       <c r="E46" s="5">
         <v>46168</v>
       </c>
-      <c r="F46" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G46" s="2"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
+        <v>45981</v>
+      </c>
       <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -5065,13 +5661,14 @@
       <c r="E47" s="5">
         <v>45980</v>
       </c>
-      <c r="F47" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G47" s="2"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
+        <v>45981</v>
+      </c>
       <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -5087,13 +5684,14 @@
       <c r="E48" s="5">
         <v>46095</v>
       </c>
-      <c r="F48" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G48" s="2"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <v>45981</v>
+      </c>
       <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -5110,12 +5708,15 @@
         <v>45950</v>
       </c>
       <c r="F49" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G49" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G49" s="5">
+        <v>45981</v>
+      </c>
       <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -5131,13 +5732,14 @@
       <c r="E50" s="5">
         <v>46152</v>
       </c>
-      <c r="F50" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5">
+        <v>45981</v>
+      </c>
       <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -5154,12 +5756,15 @@
         <v>45916</v>
       </c>
       <c r="F51" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G51" s="2"/>
+        <v>45920</v>
+      </c>
+      <c r="G51" s="5">
+        <v>45981</v>
+      </c>
       <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -5176,12 +5781,15 @@
         <v>45866</v>
       </c>
       <c r="F52" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G52" s="2"/>
+        <v>46129</v>
+      </c>
+      <c r="G52" s="5">
+        <v>45981</v>
+      </c>
       <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -5198,12 +5806,15 @@
         <v>46152</v>
       </c>
       <c r="F53" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G53" s="2"/>
+        <v>46048</v>
+      </c>
+      <c r="G53" s="5">
+        <v>45981</v>
+      </c>
       <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -5220,12 +5831,15 @@
         <v>45728</v>
       </c>
       <c r="F54" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G54" s="2"/>
+        <v>46106</v>
+      </c>
+      <c r="G54" s="5">
+        <v>45981</v>
+      </c>
       <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -5242,12 +5856,15 @@
         <v>45904</v>
       </c>
       <c r="F55" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G55" s="2"/>
+        <v>45966</v>
+      </c>
+      <c r="G55" s="5">
+        <v>45981</v>
+      </c>
       <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -5264,12 +5881,15 @@
         <v>46008</v>
       </c>
       <c r="F56" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G56" s="2"/>
+        <v>46144</v>
+      </c>
+      <c r="G56" s="5">
+        <v>45981</v>
+      </c>
       <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -5286,12 +5906,15 @@
         <v>46225</v>
       </c>
       <c r="F57" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G57" s="2"/>
+        <v>45818</v>
+      </c>
+      <c r="G57" s="5">
+        <v>45981</v>
+      </c>
       <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -5308,12 +5931,15 @@
         <v>46117</v>
       </c>
       <c r="F58" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G58" s="2"/>
+        <v>45897</v>
+      </c>
+      <c r="G58" s="5">
+        <v>45981</v>
+      </c>
       <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -5330,12 +5956,15 @@
         <v>46035</v>
       </c>
       <c r="F59" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G59" s="2"/>
+        <v>46011</v>
+      </c>
+      <c r="G59" s="5">
+        <v>45981</v>
+      </c>
       <c r="H59" s="2"/>
-    </row>
-    <row r="60" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -5352,12 +5981,15 @@
         <v>45806</v>
       </c>
       <c r="F60" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G60" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G60" s="5">
+        <v>45981</v>
+      </c>
       <c r="H60" s="2"/>
-    </row>
-    <row r="61" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -5373,13 +6005,14 @@
       <c r="E61" s="5">
         <v>45969</v>
       </c>
-      <c r="F61" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G61" s="2"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
+        <v>45981</v>
+      </c>
       <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -5396,12 +6029,15 @@
         <v>46123</v>
       </c>
       <c r="F62" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G62" s="2"/>
+        <v>46023</v>
+      </c>
+      <c r="G62" s="5">
+        <v>45981</v>
+      </c>
       <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -5418,12 +6054,15 @@
         <v>46101</v>
       </c>
       <c r="F63" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G63" s="2"/>
+        <v>46223</v>
+      </c>
+      <c r="G63" s="5">
+        <v>45981</v>
+      </c>
       <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -5440,12 +6079,15 @@
         <v>46060</v>
       </c>
       <c r="F64" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G64" s="2"/>
+        <v>46143</v>
+      </c>
+      <c r="G64" s="5">
+        <v>45981</v>
+      </c>
       <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -5462,12 +6104,15 @@
         <v>45946</v>
       </c>
       <c r="F65" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G65" s="2"/>
+        <v>46082</v>
+      </c>
+      <c r="G65" s="5">
+        <v>45981</v>
+      </c>
       <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -5484,12 +6129,15 @@
         <v>46144</v>
       </c>
       <c r="F66" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G66" s="2"/>
+        <v>45910</v>
+      </c>
+      <c r="G66" s="5">
+        <v>45981</v>
+      </c>
       <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -5506,12 +6154,15 @@
         <v>45822</v>
       </c>
       <c r="F67" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G67" s="2"/>
+        <v>45976</v>
+      </c>
+      <c r="G67" s="5">
+        <v>45981</v>
+      </c>
       <c r="H67" s="2"/>
-    </row>
-    <row r="68" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -5528,12 +6179,15 @@
         <v>45890</v>
       </c>
       <c r="F68" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G68" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G68" s="5">
+        <v>45981</v>
+      </c>
       <c r="H68" s="2"/>
-    </row>
-    <row r="69" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -5550,12 +6204,15 @@
         <v>46001</v>
       </c>
       <c r="F69" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G69" s="2"/>
+        <v>46037</v>
+      </c>
+      <c r="G69" s="5">
+        <v>45981</v>
+      </c>
       <c r="H69" s="2"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -5572,12 +6229,15 @@
         <v>46048</v>
       </c>
       <c r="F70" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G70" s="2"/>
+        <v>45717</v>
+      </c>
+      <c r="G70" s="5">
+        <v>45981</v>
+      </c>
       <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -5594,12 +6254,15 @@
         <v>46084</v>
       </c>
       <c r="F71" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G71" s="2"/>
+        <v>45971</v>
+      </c>
+      <c r="G71" s="5">
+        <v>45981</v>
+      </c>
       <c r="H71" s="2"/>
-    </row>
-    <row r="72" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -5616,12 +6279,15 @@
         <v>45907</v>
       </c>
       <c r="F72" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G72" s="2"/>
+        <v>46040</v>
+      </c>
+      <c r="G72" s="5">
+        <v>45981</v>
+      </c>
       <c r="H72" s="2"/>
-    </row>
-    <row r="73" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -5638,12 +6304,15 @@
         <v>46222</v>
       </c>
       <c r="F73" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G73" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G73" s="5">
+        <v>45981</v>
+      </c>
       <c r="H73" s="2"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
@@ -5660,12 +6329,15 @@
         <v>45748</v>
       </c>
       <c r="F74" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G74" s="2"/>
+        <v>46063</v>
+      </c>
+      <c r="G74" s="5">
+        <v>45981</v>
+      </c>
       <c r="H74" s="2"/>
-    </row>
-    <row r="75" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>74</v>
       </c>
@@ -5682,12 +6354,15 @@
         <v>46064</v>
       </c>
       <c r="F75" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G75" s="2"/>
+        <v>45717</v>
+      </c>
+      <c r="G75" s="5">
+        <v>45981</v>
+      </c>
       <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>75</v>
       </c>
@@ -5706,10 +6381,13 @@
       <c r="F76" s="5">
         <v>45981</v>
       </c>
-      <c r="G76" s="2"/>
+      <c r="G76" s="5">
+        <v>45981</v>
+      </c>
       <c r="H76" s="2"/>
-    </row>
-    <row r="77" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>76</v>
       </c>
@@ -5726,12 +6404,15 @@
         <v>45970</v>
       </c>
       <c r="F77" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G77" s="2"/>
+        <v>45894</v>
+      </c>
+      <c r="G77" s="5">
+        <v>45981</v>
+      </c>
       <c r="H77" s="2"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>77</v>
       </c>
@@ -5748,12 +6429,15 @@
         <v>46146</v>
       </c>
       <c r="F78" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G78" s="2"/>
+        <v>46157</v>
+      </c>
+      <c r="G78" s="5">
+        <v>45981</v>
+      </c>
       <c r="H78" s="2"/>
-    </row>
-    <row r="79" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>78</v>
       </c>
@@ -5769,13 +6453,14 @@
       <c r="E79" s="5">
         <v>46040</v>
       </c>
-      <c r="F79" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G79" s="2"/>
+      <c r="F79" s="5"/>
+      <c r="G79" s="5">
+        <v>45981</v>
+      </c>
       <c r="H79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>79</v>
       </c>
@@ -5792,12 +6477,15 @@
         <v>45717</v>
       </c>
       <c r="F80" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G80" s="2"/>
+        <v>46167</v>
+      </c>
+      <c r="G80" s="5">
+        <v>45981</v>
+      </c>
       <c r="H80" s="2"/>
-    </row>
-    <row r="81" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>80</v>
       </c>
@@ -5814,12 +6502,15 @@
         <v>45953</v>
       </c>
       <c r="F81" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G81" s="2"/>
+        <v>46101</v>
+      </c>
+      <c r="G81" s="5">
+        <v>45981</v>
+      </c>
       <c r="H81" s="2"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>81</v>
       </c>
@@ -5836,12 +6527,15 @@
         <v>46218</v>
       </c>
       <c r="F82" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G82" s="2"/>
+        <v>45950</v>
+      </c>
+      <c r="G82" s="5">
+        <v>45981</v>
+      </c>
       <c r="H82" s="2"/>
-    </row>
-    <row r="83" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>82</v>
       </c>
@@ -5858,12 +6552,15 @@
         <v>46087</v>
       </c>
       <c r="F83" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G83" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G83" s="5">
+        <v>45981</v>
+      </c>
       <c r="H83" s="2"/>
-    </row>
-    <row r="84" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>83</v>
       </c>
@@ -5880,12 +6577,15 @@
         <v>45920</v>
       </c>
       <c r="F84" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G84" s="2"/>
+        <v>45809</v>
+      </c>
+      <c r="G84" s="5">
+        <v>45981</v>
+      </c>
       <c r="H84" s="2"/>
-    </row>
-    <row r="85" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>84</v>
       </c>
@@ -5902,12 +6602,15 @@
         <v>46129</v>
       </c>
       <c r="F85" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G85" s="2"/>
+        <v>45839</v>
+      </c>
+      <c r="G85" s="5">
+        <v>45981</v>
+      </c>
       <c r="H85" s="2"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>85</v>
       </c>
@@ -5924,12 +6627,15 @@
         <v>45990</v>
       </c>
       <c r="F86" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G86" s="2"/>
+        <v>45901</v>
+      </c>
+      <c r="G86" s="5">
+        <v>45981</v>
+      </c>
       <c r="H86" s="2"/>
-    </row>
-    <row r="87" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>86</v>
       </c>
@@ -5946,12 +6652,15 @@
         <v>46005</v>
       </c>
       <c r="F87" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G87" s="2"/>
+        <v>46122</v>
+      </c>
+      <c r="G87" s="5">
+        <v>45981</v>
+      </c>
       <c r="H87" s="2"/>
-    </row>
-    <row r="88" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>87</v>
       </c>
@@ -5968,12 +6677,15 @@
         <v>45846</v>
       </c>
       <c r="F88" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G88" s="2"/>
+        <v>46078</v>
+      </c>
+      <c r="G88" s="5">
+        <v>45981</v>
+      </c>
       <c r="H88" s="2"/>
-    </row>
-    <row r="89" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>88</v>
       </c>
@@ -5990,12 +6702,15 @@
         <v>46056</v>
       </c>
       <c r="F89" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G89" s="2"/>
+        <v>45818</v>
+      </c>
+      <c r="G89" s="5">
+        <v>45981</v>
+      </c>
       <c r="H89" s="2"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A90" s="6">
         <v>89</v>
       </c>
@@ -6012,12 +6727,15 @@
         <v>45985</v>
       </c>
       <c r="F90" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G90" s="2"/>
+        <v>46023</v>
+      </c>
+      <c r="G90" s="5">
+        <v>45981</v>
+      </c>
       <c r="H90" s="2"/>
-    </row>
-    <row r="91" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A91" s="6">
         <v>90</v>
       </c>
@@ -6034,12 +6752,15 @@
         <v>45787</v>
       </c>
       <c r="F91" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G91" s="2"/>
+        <v>46101</v>
+      </c>
+      <c r="G91" s="5">
+        <v>45981</v>
+      </c>
       <c r="H91" s="2"/>
-    </row>
-    <row r="92" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A92" s="6">
         <v>91</v>
       </c>
@@ -6056,12 +6777,15 @@
         <v>46118</v>
       </c>
       <c r="F92" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G92" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G92" s="5">
+        <v>45981</v>
+      </c>
       <c r="H92" s="2"/>
-    </row>
-    <row r="93" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A93" s="6">
         <v>92</v>
       </c>
@@ -6078,12 +6802,15 @@
         <v>46041</v>
       </c>
       <c r="F93" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G93" s="2"/>
+        <v>46054</v>
+      </c>
+      <c r="G93" s="5">
+        <v>45981</v>
+      </c>
       <c r="H93" s="2"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A94" s="6">
         <v>93</v>
       </c>
@@ -6100,12 +6827,15 @@
         <v>45931</v>
       </c>
       <c r="F94" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G94" s="2"/>
+        <v>46113</v>
+      </c>
+      <c r="G94" s="5">
+        <v>45981</v>
+      </c>
       <c r="H94" s="2"/>
-    </row>
-    <row r="95" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>94</v>
       </c>
@@ -6122,12 +6852,15 @@
         <v>46096</v>
       </c>
       <c r="F95" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G95" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G95" s="5">
+        <v>45981</v>
+      </c>
       <c r="H95" s="2"/>
-    </row>
-    <row r="96" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>95</v>
       </c>
@@ -6146,10 +6879,13 @@
       <c r="F96" s="5">
         <v>45981</v>
       </c>
-      <c r="G96" s="2"/>
+      <c r="G96" s="5">
+        <v>45981</v>
+      </c>
       <c r="H96" s="2"/>
-    </row>
-    <row r="97" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>96</v>
       </c>
@@ -6166,12 +6902,15 @@
         <v>45995</v>
       </c>
       <c r="F97" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G97" s="2"/>
+        <v>46042</v>
+      </c>
+      <c r="G97" s="5">
+        <v>45981</v>
+      </c>
       <c r="H97" s="2"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>97</v>
       </c>
@@ -6188,12 +6927,15 @@
         <v>46221</v>
       </c>
       <c r="F98" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G98" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G98" s="5">
+        <v>45981</v>
+      </c>
       <c r="H98" s="2"/>
-    </row>
-    <row r="99" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>98</v>
       </c>
@@ -6210,12 +6952,15 @@
         <v>45770</v>
       </c>
       <c r="F99" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G99" s="2"/>
+        <v>46037</v>
+      </c>
+      <c r="G99" s="5">
+        <v>45981</v>
+      </c>
       <c r="H99" s="2"/>
-    </row>
-    <row r="100" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>99</v>
       </c>
@@ -6232,12 +6977,15 @@
         <v>46088</v>
       </c>
       <c r="F100" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G100" s="2"/>
+        <v>45809</v>
+      </c>
+      <c r="G100" s="5">
+        <v>45981</v>
+      </c>
       <c r="H100" s="2"/>
-    </row>
-    <row r="101" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A101" s="6">
         <v>100</v>
       </c>
@@ -6254,12 +7002,15 @@
         <v>46163</v>
       </c>
       <c r="F101" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G101" s="2"/>
+        <v>45901</v>
+      </c>
+      <c r="G101" s="5">
+        <v>45981</v>
+      </c>
       <c r="H101" s="2"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A102" s="6">
         <v>101</v>
       </c>
@@ -6276,12 +7027,15 @@
         <v>45935</v>
       </c>
       <c r="F102" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G102" s="2"/>
+        <v>45920</v>
+      </c>
+      <c r="G102" s="5">
+        <v>45981</v>
+      </c>
       <c r="H102" s="2"/>
-    </row>
-    <row r="103" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A103" s="6">
         <v>102</v>
       </c>
@@ -6298,12 +7052,15 @@
         <v>45990</v>
       </c>
       <c r="F103" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G103" s="2"/>
+        <v>46127</v>
+      </c>
+      <c r="G103" s="5">
+        <v>45981</v>
+      </c>
       <c r="H103" s="2"/>
-    </row>
-    <row r="104" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A104" s="6">
         <v>103</v>
       </c>
@@ -6319,13 +7076,14 @@
       <c r="E104" s="5">
         <v>46123</v>
       </c>
-      <c r="F104" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G104" s="2"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5">
+        <v>45981</v>
+      </c>
       <c r="H104" s="2"/>
-    </row>
-    <row r="105" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I104" s="2"/>
+    </row>
+    <row r="105" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A105" s="6">
         <v>104</v>
       </c>
@@ -6342,12 +7100,15 @@
         <v>46095</v>
       </c>
       <c r="F105" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G105" s="2"/>
+        <v>45924</v>
+      </c>
+      <c r="G105" s="5">
+        <v>45981</v>
+      </c>
       <c r="H105" s="2"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A106" s="6">
         <v>105</v>
       </c>
@@ -6363,13 +7124,14 @@
       <c r="E106" s="5">
         <v>46145</v>
       </c>
-      <c r="F106" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G106" s="2"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5">
+        <v>45981</v>
+      </c>
       <c r="H106" s="2"/>
-    </row>
-    <row r="107" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A107" s="6">
         <v>106</v>
       </c>
@@ -6386,12 +7148,15 @@
         <v>45916</v>
       </c>
       <c r="F107" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G107" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G107" s="5">
+        <v>45981</v>
+      </c>
       <c r="H107" s="2"/>
-    </row>
-    <row r="108" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I107" s="2"/>
+    </row>
+    <row r="108" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A108" s="6">
         <v>107</v>
       </c>
@@ -6407,13 +7172,14 @@
       <c r="E108" s="5">
         <v>46023</v>
       </c>
-      <c r="F108" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G108" s="2"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5">
+        <v>45981</v>
+      </c>
       <c r="H108" s="2"/>
-    </row>
-    <row r="109" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I108" s="2"/>
+    </row>
+    <row r="109" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>108</v>
       </c>
@@ -6430,12 +7196,15 @@
         <v>45804</v>
       </c>
       <c r="F109" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G109" s="2"/>
+        <v>46152</v>
+      </c>
+      <c r="G109" s="5">
+        <v>45981</v>
+      </c>
       <c r="H109" s="2"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I109" s="2"/>
+    </row>
+    <row r="110" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>109</v>
       </c>
@@ -6452,12 +7221,15 @@
         <v>46072</v>
       </c>
       <c r="F110" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G110" s="2"/>
+        <v>45901</v>
+      </c>
+      <c r="G110" s="5">
+        <v>45981</v>
+      </c>
       <c r="H110" s="2"/>
-    </row>
-    <row r="111" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I110" s="2"/>
+    </row>
+    <row r="111" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>110</v>
       </c>
@@ -6474,12 +7246,15 @@
         <v>46003</v>
       </c>
       <c r="F111" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G111" s="2"/>
+        <v>45889</v>
+      </c>
+      <c r="G111" s="5">
+        <v>45981</v>
+      </c>
       <c r="H111" s="2"/>
-    </row>
-    <row r="112" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I111" s="2"/>
+    </row>
+    <row r="112" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>111</v>
       </c>
@@ -6496,12 +7271,15 @@
         <v>45755</v>
       </c>
       <c r="F112" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G112" s="2"/>
+        <v>46162</v>
+      </c>
+      <c r="G112" s="5">
+        <v>45981</v>
+      </c>
       <c r="H112" s="2"/>
-    </row>
-    <row r="113" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I112" s="2"/>
+    </row>
+    <row r="113" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>112</v>
       </c>
@@ -6517,13 +7295,14 @@
       <c r="E113" s="5">
         <v>45904</v>
       </c>
-      <c r="F113" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G113" s="2"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5">
+        <v>45981</v>
+      </c>
       <c r="H113" s="2"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I113" s="2"/>
+    </row>
+    <row r="114" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>113</v>
       </c>
@@ -6539,13 +7318,14 @@
       <c r="E114" s="5">
         <v>46224</v>
       </c>
-      <c r="F114" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G114" s="2"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="5">
+        <v>45981</v>
+      </c>
       <c r="H114" s="2"/>
-    </row>
-    <row r="115" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I114" s="2"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A115" s="6">
         <v>114</v>
       </c>
@@ -6562,12 +7342,15 @@
         <v>46188</v>
       </c>
       <c r="F115" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G115" s="2"/>
+        <v>46011</v>
+      </c>
+      <c r="G115" s="5">
+        <v>45981</v>
+      </c>
       <c r="H115" s="2"/>
-    </row>
-    <row r="116" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I115" s="2"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A116" s="6">
         <v>115</v>
       </c>
@@ -6584,12 +7367,15 @@
         <v>45964</v>
       </c>
       <c r="F116" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G116" s="2"/>
+        <v>46127</v>
+      </c>
+      <c r="G116" s="5">
+        <v>45981</v>
+      </c>
       <c r="H116" s="2"/>
-    </row>
-    <row r="117" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I116" s="2"/>
+    </row>
+    <row r="117" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A117" s="6">
         <v>116</v>
       </c>
@@ -6606,12 +7392,15 @@
         <v>46109</v>
       </c>
       <c r="F117" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G117" s="2"/>
+        <v>45809</v>
+      </c>
+      <c r="G117" s="5">
+        <v>45981</v>
+      </c>
       <c r="H117" s="2"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I117" s="2"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A118" s="6">
         <v>117</v>
       </c>
@@ -6627,13 +7416,14 @@
       <c r="E118" s="5">
         <v>46031</v>
       </c>
-      <c r="F118" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G118" s="2"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5">
+        <v>45981</v>
+      </c>
       <c r="H118" s="2"/>
-    </row>
-    <row r="119" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I118" s="2"/>
+    </row>
+    <row r="119" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A119" s="6">
         <v>118</v>
       </c>
@@ -6650,12 +7440,15 @@
         <v>46162</v>
       </c>
       <c r="F119" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G119" s="2"/>
+        <v>45976</v>
+      </c>
+      <c r="G119" s="5">
+        <v>45981</v>
+      </c>
       <c r="H119" s="2"/>
-    </row>
-    <row r="120" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I119" s="2"/>
+    </row>
+    <row r="120" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A120" s="6">
         <v>119</v>
       </c>
@@ -6672,12 +7465,15 @@
         <v>45839</v>
       </c>
       <c r="F120" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G120" s="2"/>
+        <v>46101</v>
+      </c>
+      <c r="G120" s="5">
+        <v>45981</v>
+      </c>
       <c r="H120" s="2"/>
-    </row>
-    <row r="121" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I120" s="2"/>
+    </row>
+    <row r="121" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A121" s="6">
         <v>120</v>
       </c>
@@ -6694,12 +7490,15 @@
         <v>46126</v>
       </c>
       <c r="F121" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G121" s="2"/>
+        <v>45839</v>
+      </c>
+      <c r="G121" s="5">
+        <v>45981</v>
+      </c>
       <c r="H121" s="2"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I121" s="2"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A122" s="6">
         <v>121</v>
       </c>
@@ -6718,10 +7517,13 @@
       <c r="F122" s="5">
         <v>45981</v>
       </c>
-      <c r="G122" s="2"/>
+      <c r="G122" s="5">
+        <v>45981</v>
+      </c>
       <c r="H122" s="2"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I122" s="2"/>
+    </row>
+    <row r="123" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A123" s="6">
         <v>122</v>
       </c>
@@ -6737,13 +7539,14 @@
       <c r="E123" s="5">
         <v>46001</v>
       </c>
-      <c r="F123" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G123" s="2"/>
+      <c r="F123" s="5"/>
+      <c r="G123" s="5">
+        <v>45981</v>
+      </c>
       <c r="H123" s="2"/>
-    </row>
-    <row r="124" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I123" s="2"/>
+    </row>
+    <row r="124" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A124" s="6">
         <v>123</v>
       </c>
@@ -6760,12 +7563,15 @@
         <v>46117</v>
       </c>
       <c r="F124" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G124" s="2"/>
+        <v>46162</v>
+      </c>
+      <c r="G124" s="5">
+        <v>45981</v>
+      </c>
       <c r="H124" s="2"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I124" s="2"/>
+    </row>
+    <row r="125" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A125" s="6">
         <v>124</v>
       </c>
@@ -6782,12 +7588,15 @@
         <v>45984</v>
       </c>
       <c r="F125" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G125" s="2"/>
+        <v>45870</v>
+      </c>
+      <c r="G125" s="5">
+        <v>45981</v>
+      </c>
       <c r="H125" s="2"/>
-    </row>
-    <row r="126" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I125" s="2"/>
+    </row>
+    <row r="126" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A126" s="6">
         <v>125</v>
       </c>
@@ -6803,13 +7612,14 @@
       <c r="E126" s="5">
         <v>46098</v>
       </c>
-      <c r="F126" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G126" s="2"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5">
+        <v>45981</v>
+      </c>
       <c r="H126" s="2"/>
-    </row>
-    <row r="127" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I126" s="2"/>
+    </row>
+    <row r="127" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A127" s="6">
         <v>126</v>
       </c>
@@ -6826,12 +7636,15 @@
         <v>45919</v>
       </c>
       <c r="F127" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G127" s="2"/>
+        <v>46001</v>
+      </c>
+      <c r="G127" s="5">
+        <v>45981</v>
+      </c>
       <c r="H127" s="2"/>
-    </row>
-    <row r="128" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I127" s="2"/>
+    </row>
+    <row r="128" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A128" s="6">
         <v>127</v>
       </c>
@@ -6848,12 +7661,15 @@
         <v>45724</v>
       </c>
       <c r="F128" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G128" s="2"/>
+        <v>46068</v>
+      </c>
+      <c r="G128" s="5">
+        <v>45981</v>
+      </c>
       <c r="H128" s="2"/>
-    </row>
-    <row r="129" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I128" s="2"/>
+    </row>
+    <row r="129" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A129" s="6">
         <v>128</v>
       </c>
@@ -6870,12 +7686,15 @@
         <v>46055</v>
       </c>
       <c r="F129" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G129" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G129" s="5">
+        <v>45981</v>
+      </c>
       <c r="H129" s="2"/>
-    </row>
-    <row r="130" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I129" s="2"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A130" s="6">
         <v>129</v>
       </c>
@@ -6892,12 +7711,15 @@
         <v>46132</v>
       </c>
       <c r="F130" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G130" s="2"/>
+        <v>46223</v>
+      </c>
+      <c r="G130" s="5">
+        <v>45981</v>
+      </c>
       <c r="H130" s="2"/>
-    </row>
-    <row r="131" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I130" s="2"/>
+    </row>
+    <row r="131" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A131" s="6">
         <v>130</v>
       </c>
@@ -6914,12 +7736,15 @@
         <v>45844</v>
       </c>
       <c r="F131" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G131" s="2"/>
+        <v>46132</v>
+      </c>
+      <c r="G131" s="5">
+        <v>45981</v>
+      </c>
       <c r="H131" s="2"/>
-    </row>
-    <row r="132" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I131" s="2"/>
+    </row>
+    <row r="132" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A132" s="6">
         <v>131</v>
       </c>
@@ -6936,12 +7761,15 @@
         <v>46155</v>
       </c>
       <c r="F132" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G132" s="2"/>
+        <v>46157</v>
+      </c>
+      <c r="G132" s="5">
+        <v>45981</v>
+      </c>
       <c r="H132" s="2"/>
-    </row>
-    <row r="133" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I132" s="2"/>
+    </row>
+    <row r="133" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A133" s="6">
         <v>132</v>
       </c>
@@ -6958,12 +7786,15 @@
         <v>46040</v>
       </c>
       <c r="F133" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G133" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G133" s="5">
+        <v>45981</v>
+      </c>
       <c r="H133" s="2"/>
-    </row>
-    <row r="134" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I133" s="2"/>
+    </row>
+    <row r="134" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A134" s="6">
         <v>133</v>
       </c>
@@ -6980,12 +7811,15 @@
         <v>45954</v>
       </c>
       <c r="F134" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G134" s="2"/>
+        <v>45809</v>
+      </c>
+      <c r="G134" s="5">
+        <v>45981</v>
+      </c>
       <c r="H134" s="2"/>
-    </row>
-    <row r="135" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I134" s="2"/>
+    </row>
+    <row r="135" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A135" s="6">
         <v>134</v>
       </c>
@@ -7002,12 +7836,15 @@
         <v>46119</v>
       </c>
       <c r="F135" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G135" s="2"/>
+        <v>46037</v>
+      </c>
+      <c r="G135" s="5">
+        <v>45981</v>
+      </c>
       <c r="H135" s="2"/>
-    </row>
-    <row r="136" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I135" s="2"/>
+    </row>
+    <row r="136" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A136" s="6">
         <v>135</v>
       </c>
@@ -7024,12 +7861,15 @@
         <v>46110</v>
       </c>
       <c r="F136" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G136" s="2"/>
+        <v>45971</v>
+      </c>
+      <c r="G136" s="5">
+        <v>45981</v>
+      </c>
       <c r="H136" s="2"/>
-    </row>
-    <row r="137" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I136" s="2"/>
+    </row>
+    <row r="137" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A137" s="6">
         <v>136</v>
       </c>
@@ -7046,12 +7886,15 @@
         <v>45971</v>
       </c>
       <c r="F137" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G137" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G137" s="5">
+        <v>45981</v>
+      </c>
       <c r="H137" s="2"/>
-    </row>
-    <row r="138" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I137" s="2"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A138" s="6">
         <v>137</v>
       </c>
@@ -7068,12 +7911,15 @@
         <v>46146</v>
       </c>
       <c r="F138" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G138" s="2"/>
+        <v>46152</v>
+      </c>
+      <c r="G138" s="5">
+        <v>45981</v>
+      </c>
       <c r="H138" s="2"/>
-    </row>
-    <row r="139" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I138" s="2"/>
+    </row>
+    <row r="139" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A139" s="6">
         <v>138</v>
       </c>
@@ -7092,10 +7938,13 @@
       <c r="F139" s="5">
         <v>45981</v>
       </c>
-      <c r="G139" s="2"/>
+      <c r="G139" s="5">
+        <v>45981</v>
+      </c>
       <c r="H139" s="2"/>
-    </row>
-    <row r="140" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I139" s="2"/>
+    </row>
+    <row r="140" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A140" s="6">
         <v>139</v>
       </c>
@@ -7112,12 +7961,15 @@
         <v>45809</v>
       </c>
       <c r="F140" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G140" s="2"/>
+        <v>46032</v>
+      </c>
+      <c r="G140" s="5">
+        <v>45981</v>
+      </c>
       <c r="H140" s="2"/>
-    </row>
-    <row r="141" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I140" s="2"/>
+    </row>
+    <row r="141" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A141" s="6">
         <v>140</v>
       </c>
@@ -7134,12 +7986,15 @@
         <v>45978</v>
       </c>
       <c r="F141" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G141" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G141" s="5">
+        <v>45981</v>
+      </c>
       <c r="H141" s="2"/>
-    </row>
-    <row r="142" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I141" s="2"/>
+    </row>
+    <row r="142" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A142" s="6">
         <v>141</v>
       </c>
@@ -7156,12 +8011,15 @@
         <v>45890</v>
       </c>
       <c r="F142" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G142" s="2"/>
+        <v>45839</v>
+      </c>
+      <c r="G142" s="5">
+        <v>45981</v>
+      </c>
       <c r="H142" s="2"/>
-    </row>
-    <row r="143" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I142" s="2"/>
+    </row>
+    <row r="143" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A143" s="6">
         <v>142</v>
       </c>
@@ -7178,12 +8036,15 @@
         <v>46037</v>
       </c>
       <c r="F143" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G143" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G143" s="5">
+        <v>45981</v>
+      </c>
       <c r="H143" s="2"/>
-    </row>
-    <row r="144" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I143" s="2"/>
+    </row>
+    <row r="144" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A144" s="6">
         <v>143</v>
       </c>
@@ -7199,13 +8060,14 @@
       <c r="E144" s="5">
         <v>46231</v>
       </c>
-      <c r="F144" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G144" s="2"/>
+      <c r="F144" s="5"/>
+      <c r="G144" s="5">
+        <v>45981</v>
+      </c>
       <c r="H144" s="2"/>
-    </row>
-    <row r="145" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I144" s="2"/>
+    </row>
+    <row r="145" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A145" s="6">
         <v>144</v>
       </c>
@@ -7222,12 +8084,15 @@
         <v>45780</v>
       </c>
       <c r="F145" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G145" s="2"/>
+        <v>46162</v>
+      </c>
+      <c r="G145" s="5">
+        <v>45981</v>
+      </c>
       <c r="H145" s="2"/>
-    </row>
-    <row r="146" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I145" s="2"/>
+    </row>
+    <row r="146" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A146" s="6">
         <v>145</v>
       </c>
@@ -7244,12 +8109,15 @@
         <v>45946</v>
       </c>
       <c r="F146" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G146" s="2"/>
+        <v>46162</v>
+      </c>
+      <c r="G146" s="5">
+        <v>45981</v>
+      </c>
       <c r="H146" s="2"/>
-    </row>
-    <row r="147" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I146" s="2"/>
+    </row>
+    <row r="147" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A147" s="6">
         <v>146</v>
       </c>
@@ -7266,12 +8134,15 @@
         <v>46061</v>
       </c>
       <c r="F147" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G147" s="2"/>
+        <v>46143</v>
+      </c>
+      <c r="G147" s="5">
+        <v>45981</v>
+      </c>
       <c r="H147" s="2"/>
-    </row>
-    <row r="148" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I147" s="2"/>
+    </row>
+    <row r="148" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A148" s="6">
         <v>147</v>
       </c>
@@ -7288,12 +8159,15 @@
         <v>46014</v>
       </c>
       <c r="F148" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G148" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G148" s="5">
+        <v>45981</v>
+      </c>
       <c r="H148" s="2"/>
-    </row>
-    <row r="149" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I148" s="2"/>
+    </row>
+    <row r="149" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A149" s="6">
         <v>148</v>
       </c>
@@ -7312,10 +8186,13 @@
       <c r="F149" s="5">
         <v>45981</v>
       </c>
-      <c r="G149" s="2"/>
+      <c r="G149" s="5">
+        <v>45981</v>
+      </c>
       <c r="H149" s="2"/>
-    </row>
-    <row r="150" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I149" s="2"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A150" s="6">
         <v>149</v>
       </c>
@@ -7332,12 +8209,15 @@
         <v>46223</v>
       </c>
       <c r="F150" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G150" s="2"/>
+        <v>46096</v>
+      </c>
+      <c r="G150" s="5">
+        <v>45981</v>
+      </c>
       <c r="H150" s="2"/>
-    </row>
-    <row r="151" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I150" s="2"/>
+    </row>
+    <row r="151" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A151" s="6">
         <v>150</v>
       </c>
@@ -7354,12 +8234,15 @@
         <v>45905</v>
       </c>
       <c r="F151" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G151" s="2"/>
+        <v>45920</v>
+      </c>
+      <c r="G151" s="5">
+        <v>45981</v>
+      </c>
       <c r="H151" s="2"/>
-    </row>
-    <row r="152" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I151" s="2"/>
+    </row>
+    <row r="152" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A152" s="6">
         <v>151</v>
       </c>
@@ -7376,12 +8259,15 @@
         <v>46129</v>
       </c>
       <c r="F152" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G152" s="2"/>
+        <v>45778</v>
+      </c>
+      <c r="G152" s="5">
+        <v>45981</v>
+      </c>
       <c r="H152" s="2"/>
-    </row>
-    <row r="153" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I152" s="2"/>
+    </row>
+    <row r="153" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A153" s="6">
         <v>152</v>
       </c>
@@ -7398,12 +8284,15 @@
         <v>46154</v>
       </c>
       <c r="F153" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G153" s="2"/>
+        <v>46091</v>
+      </c>
+      <c r="G153" s="5">
+        <v>45981</v>
+      </c>
       <c r="H153" s="2"/>
-    </row>
-    <row r="154" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I153" s="2"/>
+    </row>
+    <row r="154" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A154" s="6">
         <v>153</v>
       </c>
@@ -7420,12 +8309,15 @@
         <v>45894</v>
       </c>
       <c r="F154" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G154" s="2"/>
+        <v>45797</v>
+      </c>
+      <c r="G154" s="5">
+        <v>45981</v>
+      </c>
       <c r="H154" s="2"/>
-    </row>
-    <row r="155" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I154" s="2"/>
+    </row>
+    <row r="155" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A155" s="6">
         <v>154</v>
       </c>
@@ -7442,12 +8334,15 @@
         <v>46091</v>
       </c>
       <c r="F155" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G155" s="2"/>
+        <v>45920</v>
+      </c>
+      <c r="G155" s="5">
+        <v>45981</v>
+      </c>
       <c r="H155" s="2"/>
-    </row>
-    <row r="156" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I155" s="2"/>
+    </row>
+    <row r="156" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A156" s="6">
         <v>155</v>
       </c>
@@ -7463,13 +8358,14 @@
       <c r="E156" s="5">
         <v>45778</v>
       </c>
-      <c r="F156" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G156" s="2"/>
+      <c r="F156" s="5"/>
+      <c r="G156" s="5">
+        <v>45981</v>
+      </c>
       <c r="H156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I156" s="2"/>
+    </row>
+    <row r="157" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A157" s="6">
         <v>156</v>
       </c>
@@ -7485,13 +8381,14 @@
       <c r="E157" s="5">
         <v>45915</v>
       </c>
-      <c r="F157" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G157" s="2"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5">
+        <v>45981</v>
+      </c>
       <c r="H157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I157" s="2"/>
+    </row>
+    <row r="158" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A158" s="6">
         <v>157</v>
       </c>
@@ -7508,12 +8405,15 @@
         <v>45966</v>
       </c>
       <c r="F158" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G158" s="2"/>
+        <v>45772</v>
+      </c>
+      <c r="G158" s="5">
+        <v>45981</v>
+      </c>
       <c r="H158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I158" s="2"/>
+    </row>
+    <row r="159" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A159" s="6">
         <v>158</v>
       </c>
@@ -7530,12 +8430,15 @@
         <v>46223</v>
       </c>
       <c r="F159" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G159" s="2"/>
+        <v>46047</v>
+      </c>
+      <c r="G159" s="5">
+        <v>45981</v>
+      </c>
       <c r="H159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I159" s="2"/>
+    </row>
+    <row r="160" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A160" s="6">
         <v>159</v>
       </c>
@@ -7552,12 +8455,15 @@
         <v>45758</v>
       </c>
       <c r="F160" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G160" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G160" s="5">
+        <v>45981</v>
+      </c>
       <c r="H160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I160" s="2"/>
+    </row>
+    <row r="161" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A161" s="6">
         <v>160</v>
       </c>
@@ -7573,13 +8479,14 @@
       <c r="E161" s="5">
         <v>46025</v>
       </c>
-      <c r="F161" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G161" s="2"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5">
+        <v>45981</v>
+      </c>
       <c r="H161" s="2"/>
-    </row>
-    <row r="162" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I161" s="2"/>
+    </row>
+    <row r="162" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A162" s="6">
         <v>161</v>
       </c>
@@ -7596,12 +8503,15 @@
         <v>45734</v>
       </c>
       <c r="F162" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G162" s="2"/>
+        <v>45782</v>
+      </c>
+      <c r="G162" s="5">
+        <v>45981</v>
+      </c>
       <c r="H162" s="2"/>
-    </row>
-    <row r="163" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I162" s="2"/>
+    </row>
+    <row r="163" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A163" s="6">
         <v>162</v>
       </c>
@@ -7617,13 +8527,14 @@
       <c r="E163" s="5">
         <v>46055</v>
       </c>
-      <c r="F163" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G163" s="2"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5">
+        <v>45981</v>
+      </c>
       <c r="H163" s="2"/>
-    </row>
-    <row r="164" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I163" s="2"/>
+    </row>
+    <row r="164" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A164" s="6">
         <v>163</v>
       </c>
@@ -7640,12 +8551,15 @@
         <v>45776</v>
       </c>
       <c r="F164" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G164" s="2"/>
+        <v>45870</v>
+      </c>
+      <c r="G164" s="5">
+        <v>45981</v>
+      </c>
       <c r="H164" s="2"/>
-    </row>
-    <row r="165" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I164" s="2"/>
+    </row>
+    <row r="165" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A165" s="6">
         <v>164</v>
       </c>
@@ -7661,13 +8575,14 @@
       <c r="E165" s="5">
         <v>46005</v>
       </c>
-      <c r="F165" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G165" s="2"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5">
+        <v>45981</v>
+      </c>
       <c r="H165" s="2"/>
-    </row>
-    <row r="166" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I165" s="2"/>
+    </row>
+    <row r="166" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A166" s="6">
         <v>165</v>
       </c>
@@ -7683,13 +8598,14 @@
       <c r="E166" s="5">
         <v>45846</v>
       </c>
-      <c r="F166" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G166" s="2"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5">
+        <v>45981</v>
+      </c>
       <c r="H166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I166" s="2"/>
+    </row>
+    <row r="167" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A167" s="6">
         <v>166</v>
       </c>
@@ -7706,12 +8622,15 @@
         <v>46044</v>
       </c>
       <c r="F167" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G167" s="2"/>
+        <v>45823</v>
+      </c>
+      <c r="G167" s="5">
+        <v>45981</v>
+      </c>
       <c r="H167" s="2"/>
-    </row>
-    <row r="168" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I167" s="2"/>
+    </row>
+    <row r="168" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A168" s="6">
         <v>167</v>
       </c>
@@ -7727,13 +8646,14 @@
       <c r="E168" s="5">
         <v>46129</v>
       </c>
-      <c r="F168" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G168" s="2"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5">
+        <v>45981</v>
+      </c>
       <c r="H168" s="2"/>
-    </row>
-    <row r="169" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I168" s="2"/>
+    </row>
+    <row r="169" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A169" s="6">
         <v>168</v>
       </c>
@@ -7749,13 +8669,14 @@
       <c r="E169" s="5">
         <v>45814</v>
       </c>
-      <c r="F169" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G169" s="2"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5">
+        <v>45981</v>
+      </c>
       <c r="H169" s="2"/>
-    </row>
-    <row r="170" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I169" s="2"/>
+    </row>
+    <row r="170" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A170" s="6">
         <v>169</v>
       </c>
@@ -7772,12 +8693,15 @@
         <v>46090</v>
       </c>
       <c r="F170" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G170" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="G170" s="5">
+        <v>45981</v>
+      </c>
       <c r="H170" s="2"/>
-    </row>
-    <row r="171" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I170" s="2"/>
+    </row>
+    <row r="171" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A171" s="6">
         <v>170</v>
       </c>
@@ -7794,12 +8718,15 @@
         <v>46072</v>
       </c>
       <c r="F171" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G171" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G171" s="5">
+        <v>45981</v>
+      </c>
       <c r="H171" s="2"/>
-    </row>
-    <row r="172" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I171" s="2"/>
+    </row>
+    <row r="172" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A172" s="6">
         <v>171</v>
       </c>
@@ -7815,13 +8742,14 @@
       <c r="E172" s="5">
         <v>45768</v>
       </c>
-      <c r="F172" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G172" s="2"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5">
+        <v>45981</v>
+      </c>
       <c r="H172" s="2"/>
-    </row>
-    <row r="173" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I172" s="2"/>
+    </row>
+    <row r="173" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A173" s="6">
         <v>172</v>
       </c>
@@ -7838,12 +8766,15 @@
         <v>45934</v>
       </c>
       <c r="F173" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G173" s="2"/>
+        <v>46023</v>
+      </c>
+      <c r="G173" s="5">
+        <v>45981</v>
+      </c>
       <c r="H173" s="2"/>
-    </row>
-    <row r="174" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I173" s="2"/>
+    </row>
+    <row r="174" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A174" s="6">
         <v>173</v>
       </c>
@@ -7859,13 +8790,14 @@
       <c r="E174" s="5">
         <v>46088</v>
       </c>
-      <c r="F174" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G174" s="2"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5">
+        <v>45981</v>
+      </c>
       <c r="H174" s="2"/>
-    </row>
-    <row r="175" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I174" s="2"/>
+    </row>
+    <row r="175" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A175" s="6">
         <v>174</v>
       </c>
@@ -7882,12 +8814,15 @@
         <v>46014</v>
       </c>
       <c r="F175" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G175" s="2"/>
+        <v>45853</v>
+      </c>
+      <c r="G175" s="5">
+        <v>45981</v>
+      </c>
       <c r="H175" s="2"/>
-    </row>
-    <row r="176" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I175" s="2"/>
+    </row>
+    <row r="176" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A176" s="6">
         <v>175</v>
       </c>
@@ -7903,13 +8838,14 @@
       <c r="E176" s="5">
         <v>46155</v>
       </c>
-      <c r="F176" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G176" s="2"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5">
+        <v>45981</v>
+      </c>
       <c r="H176" s="2"/>
-    </row>
-    <row r="177" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I176" s="2"/>
+    </row>
+    <row r="177" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A177" s="6">
         <v>176</v>
       </c>
@@ -7926,12 +8862,15 @@
         <v>45839</v>
       </c>
       <c r="F177" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G177" s="2"/>
+        <v>45813</v>
+      </c>
+      <c r="G177" s="5">
+        <v>45981</v>
+      </c>
       <c r="H177" s="2"/>
-    </row>
-    <row r="178" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I177" s="2"/>
+    </row>
+    <row r="178" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A178" s="6">
         <v>177</v>
       </c>
@@ -7948,12 +8887,15 @@
         <v>46098</v>
       </c>
       <c r="F178" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G178" s="2"/>
+        <v>45971</v>
+      </c>
+      <c r="G178" s="5">
+        <v>45981</v>
+      </c>
       <c r="H178" s="2"/>
-    </row>
-    <row r="179" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I178" s="2"/>
+    </row>
+    <row r="179" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A179" s="6">
         <v>178</v>
       </c>
@@ -7969,13 +8911,14 @@
       <c r="E179" s="5">
         <v>45805</v>
       </c>
-      <c r="F179" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G179" s="2"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="5">
+        <v>45981</v>
+      </c>
       <c r="H179" s="2"/>
-    </row>
-    <row r="180" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I179" s="2"/>
+    </row>
+    <row r="180" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A180" s="6">
         <v>179</v>
       </c>
@@ -7992,12 +8935,15 @@
         <v>45963</v>
       </c>
       <c r="F180" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G180" s="2"/>
+        <v>45767</v>
+      </c>
+      <c r="G180" s="5">
+        <v>45981</v>
+      </c>
       <c r="H180" s="2"/>
-    </row>
-    <row r="181" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I180" s="2"/>
+    </row>
+    <row r="181" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A181" s="6">
         <v>180</v>
       </c>
@@ -8014,12 +8960,15 @@
         <v>46033</v>
       </c>
       <c r="F181" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G181" s="2"/>
+        <v>45818</v>
+      </c>
+      <c r="G181" s="5">
+        <v>45981</v>
+      </c>
       <c r="H181" s="2"/>
-    </row>
-    <row r="182" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I181" s="2"/>
+    </row>
+    <row r="182" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A182" s="6">
         <v>181</v>
       </c>
@@ -8035,13 +8984,14 @@
       <c r="E182" s="5">
         <v>45751</v>
       </c>
-      <c r="F182" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G182" s="2"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5">
+        <v>45981</v>
+      </c>
       <c r="H182" s="2"/>
-    </row>
-    <row r="183" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I182" s="2"/>
+    </row>
+    <row r="183" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A183" s="6">
         <v>182</v>
       </c>
@@ -8057,13 +9007,14 @@
       <c r="E183" s="5">
         <v>45824</v>
       </c>
-      <c r="F183" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G183" s="2"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5">
+        <v>45981</v>
+      </c>
       <c r="H183" s="2"/>
-    </row>
-    <row r="184" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I183" s="2"/>
+    </row>
+    <row r="184" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A184" s="6">
         <v>183</v>
       </c>
@@ -8080,12 +9031,15 @@
         <v>46080</v>
       </c>
       <c r="F184" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G184" s="2"/>
+        <v>45931</v>
+      </c>
+      <c r="G184" s="5">
+        <v>45981</v>
+      </c>
       <c r="H184" s="2"/>
-    </row>
-    <row r="185" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I184" s="2"/>
+    </row>
+    <row r="185" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A185" s="6">
         <v>184</v>
       </c>
@@ -8102,12 +9056,15 @@
         <v>46124</v>
       </c>
       <c r="F185" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G185" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G185" s="5">
+        <v>45981</v>
+      </c>
       <c r="H185" s="2"/>
-    </row>
-    <row r="186" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I185" s="2"/>
+    </row>
+    <row r="186" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A186" s="6">
         <v>185</v>
       </c>
@@ -8124,12 +9081,15 @@
         <v>45905</v>
       </c>
       <c r="F186" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G186" s="2"/>
+        <v>45976</v>
+      </c>
+      <c r="G186" s="5">
+        <v>45981</v>
+      </c>
       <c r="H186" s="2"/>
-    </row>
-    <row r="187" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I186" s="2"/>
+    </row>
+    <row r="187" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A187" s="6">
         <v>186</v>
       </c>
@@ -8146,12 +9106,15 @@
         <v>45736</v>
       </c>
       <c r="F187" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G187" s="2"/>
+        <v>45915</v>
+      </c>
+      <c r="G187" s="5">
+        <v>45981</v>
+      </c>
       <c r="H187" s="2"/>
-    </row>
-    <row r="188" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I187" s="2"/>
+    </row>
+    <row r="188" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A188" s="6">
         <v>187</v>
       </c>
@@ -8168,12 +9131,15 @@
         <v>45974</v>
       </c>
       <c r="F188" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G188" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G188" s="5">
+        <v>45981</v>
+      </c>
       <c r="H188" s="2"/>
-    </row>
-    <row r="189" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I188" s="2"/>
+    </row>
+    <row r="189" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A189" s="6">
         <v>188</v>
       </c>
@@ -8189,13 +9155,14 @@
       <c r="E189" s="5">
         <v>45878</v>
       </c>
-      <c r="F189" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G189" s="2"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5">
+        <v>45981</v>
+      </c>
       <c r="H189" s="2"/>
-    </row>
-    <row r="190" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I189" s="2"/>
+    </row>
+    <row r="190" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A190" s="6">
         <v>189</v>
       </c>
@@ -8212,12 +9179,15 @@
         <v>45954</v>
       </c>
       <c r="F190" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G190" s="2"/>
+        <v>45736</v>
+      </c>
+      <c r="G190" s="5">
+        <v>45981</v>
+      </c>
       <c r="H190" s="2"/>
-    </row>
-    <row r="191" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I190" s="2"/>
+    </row>
+    <row r="191" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A191" s="6">
         <v>190</v>
       </c>
@@ -8233,13 +9203,14 @@
       <c r="E191" s="5">
         <v>46145</v>
       </c>
-      <c r="F191" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G191" s="2"/>
+      <c r="F191" s="5"/>
+      <c r="G191" s="5">
+        <v>45981</v>
+      </c>
       <c r="H191" s="2"/>
-    </row>
-    <row r="192" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I191" s="2"/>
+    </row>
+    <row r="192" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A192" s="6">
         <v>191</v>
       </c>
@@ -8256,12 +9227,15 @@
         <v>45731</v>
       </c>
       <c r="F192" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G192" s="2"/>
+        <v>46006</v>
+      </c>
+      <c r="G192" s="5">
+        <v>45981</v>
+      </c>
       <c r="H192" s="2"/>
-    </row>
-    <row r="193" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I192" s="2"/>
+    </row>
+    <row r="193" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A193" s="6">
         <v>192</v>
       </c>
@@ -8278,12 +9252,15 @@
         <v>46043</v>
       </c>
       <c r="F193" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G193" s="2"/>
+        <v>45905</v>
+      </c>
+      <c r="G193" s="5">
+        <v>45981</v>
+      </c>
       <c r="H193" s="2"/>
-    </row>
-    <row r="194" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I193" s="2"/>
+    </row>
+    <row r="194" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A194" s="6">
         <v>193</v>
       </c>
@@ -8300,12 +9277,15 @@
         <v>46001</v>
       </c>
       <c r="F194" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G194" s="2"/>
+        <v>45828</v>
+      </c>
+      <c r="G194" s="5">
+        <v>45981</v>
+      </c>
       <c r="H194" s="2"/>
-    </row>
-    <row r="195" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I194" s="2"/>
+    </row>
+    <row r="195" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A195" s="6">
         <v>194</v>
       </c>
@@ -8321,13 +9301,14 @@
       <c r="E195" s="5">
         <v>45897</v>
       </c>
-      <c r="F195" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G195" s="2"/>
+      <c r="F195" s="5"/>
+      <c r="G195" s="5">
+        <v>45981</v>
+      </c>
       <c r="H195" s="2"/>
-    </row>
-    <row r="196" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I195" s="2"/>
+    </row>
+    <row r="196" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A196" s="6">
         <v>195</v>
       </c>
@@ -8343,13 +9324,14 @@
       <c r="E196" s="5">
         <v>45809</v>
       </c>
-      <c r="F196" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G196" s="2"/>
+      <c r="F196" s="5"/>
+      <c r="G196" s="5">
+        <v>45981</v>
+      </c>
       <c r="H196" s="2"/>
-    </row>
-    <row r="197" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I196" s="2"/>
+    </row>
+    <row r="197" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A197" s="6">
         <v>196</v>
       </c>
@@ -8365,13 +9347,14 @@
       <c r="E197" s="5">
         <v>46119</v>
       </c>
-      <c r="F197" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G197" s="2"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="5">
+        <v>45981</v>
+      </c>
       <c r="H197" s="2"/>
-    </row>
-    <row r="198" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I197" s="2"/>
+    </row>
+    <row r="198" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A198" s="6">
         <v>197</v>
       </c>
@@ -8387,13 +9370,14 @@
       <c r="E198" s="5">
         <v>46168</v>
       </c>
-      <c r="F198" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G198" s="2"/>
+      <c r="F198" s="5"/>
+      <c r="G198" s="5">
+        <v>45981</v>
+      </c>
       <c r="H198" s="2"/>
-    </row>
-    <row r="199" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I198" s="2"/>
+    </row>
+    <row r="199" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A199" s="6">
         <v>198</v>
       </c>
@@ -8410,12 +9394,15 @@
         <v>46072</v>
       </c>
       <c r="F199" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G199" s="2"/>
+        <v>45962</v>
+      </c>
+      <c r="G199" s="5">
+        <v>45981</v>
+      </c>
       <c r="H199" s="2"/>
-    </row>
-    <row r="200" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I199" s="2"/>
+    </row>
+    <row r="200" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A200" s="6">
         <v>199</v>
       </c>
@@ -8431,13 +9418,14 @@
       <c r="E200" s="5">
         <v>46095</v>
       </c>
-      <c r="F200" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G200" s="2"/>
+      <c r="F200" s="5"/>
+      <c r="G200" s="5">
+        <v>45981</v>
+      </c>
       <c r="H200" s="2"/>
-    </row>
-    <row r="201" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="I200" s="2"/>
+    </row>
+    <row r="201" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A201" s="6">
         <v>200</v>
       </c>
@@ -8454,10 +9442,13 @@
         <v>45950</v>
       </c>
       <c r="F201" s="5">
-        <v>45981</v>
-      </c>
-      <c r="G201" s="2"/>
+        <v>45920</v>
+      </c>
+      <c r="G201" s="5">
+        <v>45981</v>
+      </c>
       <c r="H201" s="2"/>
+      <c r="I201" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
